--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/A/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/A/20/seed2/result_data_KNN.xlsx
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.79</v>
+        <v>-21.945</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.592</v>
+        <v>-21.659</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.706</v>
+        <v>-21.985</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.272</v>
+        <v>-20.022</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.566</v>
+        <v>-20.302</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.932</v>
+        <v>-21.775</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.574</v>
+        <v>-21.319</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.988</v>
+        <v>-21.236</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.454</v>
+        <v>-20</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.748</v>
+        <v>-21.948</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.106</v>
+        <v>-22.213</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.066</v>
+        <v>-22.5</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.586</v>
+        <v>-21.533</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.606</v>
+        <v>-21.602</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.132</v>
+        <v>-21.167</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.876</v>
+        <v>-22.035</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.516</v>
+        <v>-21.533</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.9</v>
+        <v>-21.22</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.794</v>
+        <v>-22.024</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
